--- a/public/uploads/BENEFICIAIRE_PERSONNE_PHYSIQUE.xlsx
+++ b/public/uploads/BENEFICIAIRE_PERSONNE_PHYSIQUE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\dekra\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA1BCC-9875-4AD2-8EB2-186910230C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE595A33-2EF3-4357-B012-0AFBEF809DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="810" windowWidth="19710" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>RAISON SOCIALE 
  du demandeur</t>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>974</t>
+  </si>
+  <si>
+    <t>Surface déclarée dans l'AH/facture (m2)</t>
+  </si>
+  <si>
+    <t>Type d'isolant (soufflé/posé/autre) déclaré</t>
+  </si>
+  <si>
+    <t>Marque et référence de l'isolant déclarées</t>
   </si>
 </sst>
 </file>
@@ -778,21 +787,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="30" max="30" width="17.140625" customWidth="1"/>
-    <col min="31" max="31" width="19.85546875" customWidth="1"/>
+    <col min="33" max="33" width="17.140625" customWidth="1"/>
+    <col min="34" max="34" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,22 +880,31 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
